--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.48118062100767</v>
+        <v>94.49312503047517</v>
       </c>
       <c r="D2" t="n">
-        <v>13.30502986584033</v>
+        <v>10.90450603542907</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>95.33027171722415</v>
+        <v>90.97078941530935</v>
       </c>
       <c r="D3" t="n">
-        <v>12.62662554920627</v>
+        <v>10.49672284767588</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.13872924732557</v>
+        <v>91.04523600201149</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54554307853676</v>
+        <v>11.22456699127366</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.7722927883168</v>
+        <v>89.35519034972698</v>
       </c>
       <c r="D5" t="n">
-        <v>12.40334181254189</v>
+        <v>11.54740333217845</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.8131809033967</v>
+        <v>88.99538549413241</v>
       </c>
       <c r="D6" t="n">
-        <v>10.97190475504752</v>
+        <v>11.23808275922376</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.93834443963767</v>
+        <v>89.18876993988934</v>
       </c>
       <c r="D7" t="n">
-        <v>12.6724578814389</v>
+        <v>11.105318356549</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.67105486073763</v>
+        <v>85.05474518257014</v>
       </c>
       <c r="D8" t="n">
-        <v>12.96067688838957</v>
+        <v>11.11594890345619</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.63489935361204</v>
+        <v>85.69778009827293</v>
       </c>
       <c r="D9" t="n">
-        <v>11.13336110033066</v>
+        <v>10.23597859988286</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.80679254249164</v>
+        <v>83.86232433758903</v>
       </c>
       <c r="D10" t="n">
-        <v>12.31395990795278</v>
+        <v>10.84638317514281</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.7788055988856</v>
+        <v>84.26237022741435</v>
       </c>
       <c r="D11" t="n">
-        <v>12.20406658185818</v>
+        <v>10.53592744477304</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.44874239881052</v>
+        <v>81.07973458241341</v>
       </c>
       <c r="D12" t="n">
-        <v>12.76085976421889</v>
+        <v>12.79045292932922</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65969427846584</v>
+        <v>79.25067193807149</v>
       </c>
       <c r="D13" t="n">
-        <v>12.76186124404545</v>
+        <v>12.65501223554845</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.72019056415999</v>
+        <v>82.38313999654122</v>
       </c>
       <c r="D14" t="n">
-        <v>12.87810406271616</v>
+        <v>9.904565380187799</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.22307458358148</v>
+        <v>79.31821908210058</v>
       </c>
       <c r="D15" t="n">
-        <v>11.74360130141245</v>
+        <v>11.20761202628182</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.33685520782639</v>
+        <v>77.79149109007602</v>
       </c>
       <c r="D16" t="n">
-        <v>10.98307061398918</v>
+        <v>11.13143081132018</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.53155639746552</v>
+        <v>77.10428131741176</v>
       </c>
       <c r="D17" t="n">
-        <v>12.71060684725839</v>
+        <v>10.20941025116558</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.47509703160162</v>
+        <v>73.55120283335447</v>
       </c>
       <c r="D18" t="n">
-        <v>12.47754073976763</v>
+        <v>12.22885452023398</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.86353423396267</v>
+        <v>75.98134848581661</v>
       </c>
       <c r="D19" t="n">
-        <v>13.32337379934884</v>
+        <v>9.951162630167769</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.31194655878075</v>
+        <v>72.48232097835094</v>
       </c>
       <c r="D20" t="n">
-        <v>12.13835322941376</v>
+        <v>11.84110093510901</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.98885949857249</v>
+        <v>72.19890994412637</v>
       </c>
       <c r="D21" t="n">
-        <v>11.58970405932058</v>
+        <v>10.9292448292683</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.62722225560482</v>
+        <v>70.39406746065703</v>
       </c>
       <c r="D22" t="n">
-        <v>13.4836326528439</v>
+        <v>11.54977901510645</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.61617421501691</v>
+        <v>70.68858216223742</v>
       </c>
       <c r="D23" t="n">
-        <v>10.7760351179383</v>
+        <v>12.44802711687832</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.55743419747623</v>
+        <v>70.58399888546289</v>
       </c>
       <c r="D24" t="n">
-        <v>10.99343028287799</v>
+        <v>11.33762465777403</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.94452977862849</v>
+        <v>71.3136642213894</v>
       </c>
       <c r="D25" t="n">
-        <v>12.07004168730283</v>
+        <v>11.38629716200023</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.03415558280837</v>
+        <v>65.87336697047351</v>
       </c>
       <c r="D26" t="n">
-        <v>9.867094908022107</v>
+        <v>12.04619275568789</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.96169612593097</v>
+        <v>66.79912469836233</v>
       </c>
       <c r="D27" t="n">
-        <v>11.72881083238012</v>
+        <v>12.08554589786877</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.60517746992203</v>
+        <v>65.94791931242182</v>
       </c>
       <c r="D28" t="n">
-        <v>12.45407946002374</v>
+        <v>10.54736970772331</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.93890054994098</v>
+        <v>64.50101369718367</v>
       </c>
       <c r="D29" t="n">
-        <v>11.50578750872955</v>
+        <v>12.66798100404268</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.6309475666165</v>
+        <v>64.84354564528464</v>
       </c>
       <c r="D30" t="n">
-        <v>10.61646689423168</v>
+        <v>11.54975534886642</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.6173644741074</v>
+        <v>60.70478378755143</v>
       </c>
       <c r="D31" t="n">
-        <v>13.45726937590763</v>
+        <v>10.73450487653657</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.77929700296016</v>
+        <v>60.93782461818929</v>
       </c>
       <c r="D32" t="n">
-        <v>12.37841977407067</v>
+        <v>11.05934745290519</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.0975782412109</v>
+        <v>60.77633409438182</v>
       </c>
       <c r="D33" t="n">
-        <v>13.11769780994563</v>
+        <v>12.61519355485684</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.92642290186197</v>
+        <v>59.16101710524283</v>
       </c>
       <c r="D34" t="n">
-        <v>13.00880972743524</v>
+        <v>11.59212039735223</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.00930663286982</v>
+        <v>58.74656794279405</v>
       </c>
       <c r="D35" t="n">
-        <v>11.0943213284025</v>
+        <v>11.78248371041797</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.02363042004167</v>
+        <v>58.20489037733425</v>
       </c>
       <c r="D36" t="n">
-        <v>11.69815300795171</v>
+        <v>11.43016342138474</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.80355374769502</v>
+        <v>53.15890003583715</v>
       </c>
       <c r="D37" t="n">
-        <v>11.45983495983628</v>
+        <v>10.85516308594081</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.71268232925208</v>
+        <v>55.68163685180421</v>
       </c>
       <c r="D38" t="n">
-        <v>11.66107300055956</v>
+        <v>9.095571235271763</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.36397203199445</v>
+        <v>52.20575299328668</v>
       </c>
       <c r="D39" t="n">
-        <v>13.0188259673573</v>
+        <v>10.95538267021216</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.60185052441528</v>
+        <v>53.29738163959541</v>
       </c>
       <c r="D40" t="n">
-        <v>12.11791732856027</v>
+        <v>12.65780867496072</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.22822097009682</v>
+        <v>51.43676357659003</v>
       </c>
       <c r="D41" t="n">
-        <v>11.44683000731917</v>
+        <v>11.15971779835561</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.72570345998654</v>
+        <v>49.58125048282211</v>
       </c>
       <c r="D42" t="n">
-        <v>11.56390824860934</v>
+        <v>11.72846966628583</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.57740932315767</v>
+        <v>51.05850780181381</v>
       </c>
       <c r="D43" t="n">
-        <v>12.58764815612419</v>
+        <v>11.83033068063162</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.56492391900633</v>
+        <v>48.93372799759027</v>
       </c>
       <c r="D44" t="n">
-        <v>11.24290992622926</v>
+        <v>11.82018633756208</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.7858388662688</v>
+        <v>47.11721697588145</v>
       </c>
       <c r="D45" t="n">
-        <v>11.31055460177646</v>
+        <v>11.81978019487452</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.37832194626004</v>
+        <v>46.98230255286591</v>
       </c>
       <c r="D46" t="n">
-        <v>12.76924800877985</v>
+        <v>12.0246475123062</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.68894132499446</v>
+        <v>45.32663955605317</v>
       </c>
       <c r="D47" t="n">
-        <v>12.34114942853892</v>
+        <v>11.47362382104492</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.36629767935833</v>
+        <v>43.3352247129241</v>
       </c>
       <c r="D48" t="n">
-        <v>12.59815806002237</v>
+        <v>12.23110856449064</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.10613633045963</v>
+        <v>44.93057656050217</v>
       </c>
       <c r="D49" t="n">
-        <v>11.86929325501631</v>
+        <v>10.77911814904353</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.01483207242354</v>
+        <v>42.05330267805733</v>
       </c>
       <c r="D50" t="n">
-        <v>11.64635386598532</v>
+        <v>11.01701777458052</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.86700107402103</v>
+        <v>41.20305314031609</v>
       </c>
       <c r="D51" t="n">
-        <v>11.72074844737221</v>
+        <v>10.55220599627706</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.73305032827277</v>
+        <v>40.01728800704308</v>
       </c>
       <c r="D52" t="n">
-        <v>11.41828013224899</v>
+        <v>10.96241132877352</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.47630012838568</v>
+        <v>37.27342295744364</v>
       </c>
       <c r="D53" t="n">
-        <v>10.64295017753025</v>
+        <v>10.7206422874634</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.07174200259244</v>
+        <v>39.76832576739764</v>
       </c>
       <c r="D54" t="n">
-        <v>12.64412135192462</v>
+        <v>10.86541267788467</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.69385313265492</v>
+        <v>38.26477637516609</v>
       </c>
       <c r="D55" t="n">
-        <v>11.59387437986074</v>
+        <v>11.46884776098909</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.50900438360927</v>
+        <v>34.74827336771118</v>
       </c>
       <c r="D56" t="n">
-        <v>12.79759542182239</v>
+        <v>11.75805209020347</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.52702196395958</v>
+        <v>33.73805783575463</v>
       </c>
       <c r="D57" t="n">
-        <v>10.86567287238932</v>
+        <v>11.21253798639842</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.42816912654467</v>
+        <v>34.51446717905856</v>
       </c>
       <c r="D58" t="n">
-        <v>11.42654147937743</v>
+        <v>11.33888874556649</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.53956890574254</v>
+        <v>31.57616455824969</v>
       </c>
       <c r="D59" t="n">
-        <v>11.17185345947614</v>
+        <v>11.67269160984965</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.32340195036553</v>
+        <v>30.9253265095407</v>
       </c>
       <c r="D60" t="n">
-        <v>11.37401157360637</v>
+        <v>11.24535469404404</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.84955317511261</v>
+        <v>30.99657153035102</v>
       </c>
       <c r="D61" t="n">
-        <v>10.86216827404019</v>
+        <v>12.33598951426252</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.09272025413911</v>
+        <v>30.10247557713318</v>
       </c>
       <c r="D62" t="n">
-        <v>12.48244490997434</v>
+        <v>9.375668875948289</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.10614565401612</v>
+        <v>29.65063085633493</v>
       </c>
       <c r="D63" t="n">
-        <v>11.63232453621996</v>
+        <v>10.39955774097431</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.88825450643508</v>
+        <v>26.25057834677734</v>
       </c>
       <c r="D64" t="n">
-        <v>10.98753543305758</v>
+        <v>12.27474225099866</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.84612771519027</v>
+        <v>25.98877712225083</v>
       </c>
       <c r="D65" t="n">
-        <v>11.61044976874667</v>
+        <v>10.34396976415389</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.86695677012038</v>
+        <v>26.87738308392844</v>
       </c>
       <c r="D66" t="n">
-        <v>10.57716209699755</v>
+        <v>10.28115709884343</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.36271652592256</v>
+        <v>26.2621979683002</v>
       </c>
       <c r="D67" t="n">
-        <v>9.129364267358909</v>
+        <v>10.71978844320347</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.94104344985391</v>
+        <v>21.99231883481931</v>
       </c>
       <c r="D68" t="n">
-        <v>10.51810131578136</v>
+        <v>10.34501809931749</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.91605471638739</v>
+        <v>23.39153739311324</v>
       </c>
       <c r="D69" t="n">
-        <v>11.18530550534945</v>
+        <v>11.24929879851364</v>
       </c>
     </row>
   </sheetData>
